--- a/Vincent-Gantt chart.xlsx
+++ b/Vincent-Gantt chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sesa459606\Desktop\C\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT TEMP\Vincent-Tsang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504B1C81-CC8E-4D12-AB62-85A324ABF030}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59500191-5A94-4CF6-829C-7D3ADBC7FA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="1" r:id="rId1"/>
@@ -227,8 +227,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd&quot;/&quot;mm&quot;/&quot;yy"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="dd&quot;/&quot;mm&quot;/&quot;yy"/>
+    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="31" x14ac:knownFonts="1">
     <font>
@@ -1106,7 +1106,7 @@
     <xf numFmtId="0" fontId="21" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="21" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="21" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1121,7 +1121,7 @@
     <xf numFmtId="49" fontId="23" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="23" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="23" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1130,7 +1130,7 @@
     <xf numFmtId="9" fontId="24" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="24" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1160,7 +1160,7 @@
     <xf numFmtId="49" fontId="23" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="23" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="23" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1169,7 +1169,7 @@
     <xf numFmtId="9" fontId="24" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="24" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1205,7 +1205,7 @@
     <xf numFmtId="0" fontId="21" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="16" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="21" fillId="16" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="21" fillId="16" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1257,6 +1257,50 @@
     <xf numFmtId="0" fontId="30" fillId="24" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="18" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="18" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1264,11 +1308,7 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1282,46 +1322,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="18" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="18" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="18" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2504,23 +2504,23 @@
   </sheetPr>
   <dimension ref="A1:BQ35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BQ28" sqref="BQ28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH32" sqref="AH32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" style="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="1" customWidth="1"/>
-    <col min="9" max="68" width="3.44140625" style="1" customWidth="1"/>
-    <col min="69" max="69" width="3.88671875" style="1" customWidth="1"/>
-    <col min="70" max="70" width="14.44140625" style="1" customWidth="1"/>
-    <col min="71" max="16384" width="14.44140625" style="1"/>
+    <col min="7" max="7" width="9.90625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" style="1" customWidth="1"/>
+    <col min="9" max="68" width="3.453125" style="1" customWidth="1"/>
+    <col min="69" max="69" width="3.90625" style="1" customWidth="1"/>
+    <col min="70" max="70" width="14.453125" style="1" customWidth="1"/>
+    <col min="71" max="16384" width="14.453125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2596,42 +2596,42 @@
     </row>
     <row r="2" spans="1:69" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
       <c r="H2" s="13"/>
-      <c r="I2" s="97" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="103" t="s">
+      <c r="I2" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="98"/>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="98"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
+      <c r="V2" s="118"/>
+      <c r="W2" s="118"/>
+      <c r="X2" s="118"/>
+      <c r="Y2" s="118"/>
+      <c r="Z2" s="118"/>
+      <c r="AA2" s="118"/>
+      <c r="AB2" s="118"/>
+      <c r="AC2" s="118"/>
+      <c r="AD2" s="118"/>
+      <c r="AE2" s="118"/>
       <c r="AF2" s="14"/>
       <c r="AG2" s="14"/>
       <c r="AH2" s="14"/>
@@ -2742,43 +2742,43 @@
       <c r="BP3" s="15"/>
       <c r="BQ3" s="16"/>
     </row>
-    <row r="4" spans="1:69" ht="21" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:69" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="12"/>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="107" t="s">
+      <c r="C4" s="123"/>
+      <c r="D4" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
       <c r="H4" s="23"/>
-      <c r="I4" s="104" t="s">
+      <c r="I4" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="106" t="s">
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="105"/>
-      <c r="V4" s="105"/>
-      <c r="W4" s="105"/>
-      <c r="X4" s="105"/>
-      <c r="Y4" s="105"/>
-      <c r="Z4" s="105"/>
-      <c r="AA4" s="105"/>
-      <c r="AB4" s="105"/>
+      <c r="Q4" s="123"/>
+      <c r="R4" s="123"/>
+      <c r="S4" s="123"/>
+      <c r="T4" s="123"/>
+      <c r="U4" s="123"/>
+      <c r="V4" s="123"/>
+      <c r="W4" s="123"/>
+      <c r="X4" s="123"/>
+      <c r="Y4" s="123"/>
+      <c r="Z4" s="123"/>
+      <c r="AA4" s="123"/>
+      <c r="AB4" s="123"/>
       <c r="AC4" s="24"/>
       <c r="AD4" s="22"/>
       <c r="AE4" s="22"/>
@@ -2821,42 +2821,42 @@
       <c r="BP4" s="15"/>
       <c r="BQ4" s="16"/>
     </row>
-    <row r="5" spans="1:69" ht="21" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:69" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="12"/>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="125" t="s">
+      <c r="C5" s="102"/>
+      <c r="D5" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
       <c r="H5" s="23"/>
-      <c r="I5" s="100" t="s">
+      <c r="I5" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="102">
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="120">
         <v>43171</v>
       </c>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="101"/>
-      <c r="S5" s="101"/>
-      <c r="T5" s="101"/>
-      <c r="U5" s="101"/>
-      <c r="V5" s="101"/>
-      <c r="W5" s="101"/>
-      <c r="X5" s="101"/>
-      <c r="Y5" s="101"/>
-      <c r="Z5" s="101"/>
-      <c r="AA5" s="101"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="102"/>
+      <c r="S5" s="102"/>
+      <c r="T5" s="102"/>
+      <c r="U5" s="102"/>
+      <c r="V5" s="102"/>
+      <c r="W5" s="102"/>
+      <c r="X5" s="102"/>
+      <c r="Y5" s="102"/>
+      <c r="Z5" s="102"/>
+      <c r="AA5" s="102"/>
       <c r="AB5" s="25"/>
       <c r="AC5" s="24"/>
       <c r="AD5" s="15"/>
@@ -3044,201 +3044,201 @@
     </row>
     <row r="8" spans="1:69" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="121" t="s">
+      <c r="C8" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="121" t="s">
+      <c r="D8" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="121" t="s">
+      <c r="E8" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="121" t="s">
+      <c r="F8" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="121" t="s">
+      <c r="G8" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="123" t="s">
+      <c r="H8" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="118" t="s">
+      <c r="I8" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="112"/>
-      <c r="R8" s="112"/>
-      <c r="S8" s="112"/>
-      <c r="T8" s="112"/>
-      <c r="U8" s="112"/>
-      <c r="V8" s="112"/>
-      <c r="W8" s="116"/>
-      <c r="X8" s="119" t="s">
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="108"/>
+      <c r="R8" s="108"/>
+      <c r="S8" s="108"/>
+      <c r="T8" s="108"/>
+      <c r="U8" s="108"/>
+      <c r="V8" s="108"/>
+      <c r="W8" s="109"/>
+      <c r="X8" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="Y8" s="112"/>
-      <c r="Z8" s="112"/>
-      <c r="AA8" s="112"/>
-      <c r="AB8" s="112"/>
-      <c r="AC8" s="112"/>
-      <c r="AD8" s="112"/>
-      <c r="AE8" s="112"/>
-      <c r="AF8" s="112"/>
-      <c r="AG8" s="112"/>
-      <c r="AH8" s="112"/>
-      <c r="AI8" s="112"/>
-      <c r="AJ8" s="112"/>
-      <c r="AK8" s="112"/>
-      <c r="AL8" s="116"/>
-      <c r="AM8" s="115" t="s">
+      <c r="Y8" s="108"/>
+      <c r="Z8" s="108"/>
+      <c r="AA8" s="108"/>
+      <c r="AB8" s="108"/>
+      <c r="AC8" s="108"/>
+      <c r="AD8" s="108"/>
+      <c r="AE8" s="108"/>
+      <c r="AF8" s="108"/>
+      <c r="AG8" s="108"/>
+      <c r="AH8" s="108"/>
+      <c r="AI8" s="108"/>
+      <c r="AJ8" s="108"/>
+      <c r="AK8" s="108"/>
+      <c r="AL8" s="109"/>
+      <c r="AM8" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="AN8" s="112"/>
-      <c r="AO8" s="112"/>
-      <c r="AP8" s="112"/>
-      <c r="AQ8" s="112"/>
-      <c r="AR8" s="112"/>
-      <c r="AS8" s="112"/>
-      <c r="AT8" s="112"/>
-      <c r="AU8" s="112"/>
-      <c r="AV8" s="112"/>
-      <c r="AW8" s="112"/>
-      <c r="AX8" s="112"/>
-      <c r="AY8" s="112"/>
-      <c r="AZ8" s="112"/>
-      <c r="BA8" s="116"/>
-      <c r="BB8" s="111" t="s">
+      <c r="AN8" s="108"/>
+      <c r="AO8" s="108"/>
+      <c r="AP8" s="108"/>
+      <c r="AQ8" s="108"/>
+      <c r="AR8" s="108"/>
+      <c r="AS8" s="108"/>
+      <c r="AT8" s="108"/>
+      <c r="AU8" s="108"/>
+      <c r="AV8" s="108"/>
+      <c r="AW8" s="108"/>
+      <c r="AX8" s="108"/>
+      <c r="AY8" s="108"/>
+      <c r="AZ8" s="108"/>
+      <c r="BA8" s="109"/>
+      <c r="BB8" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="BC8" s="112"/>
-      <c r="BD8" s="112"/>
-      <c r="BE8" s="112"/>
-      <c r="BF8" s="112"/>
-      <c r="BG8" s="112"/>
-      <c r="BH8" s="112"/>
-      <c r="BI8" s="112"/>
-      <c r="BJ8" s="112"/>
-      <c r="BK8" s="112"/>
-      <c r="BL8" s="112"/>
-      <c r="BM8" s="112"/>
-      <c r="BN8" s="112"/>
-      <c r="BO8" s="112"/>
-      <c r="BP8" s="113"/>
+      <c r="BC8" s="108"/>
+      <c r="BD8" s="108"/>
+      <c r="BE8" s="108"/>
+      <c r="BF8" s="108"/>
+      <c r="BG8" s="108"/>
+      <c r="BH8" s="108"/>
+      <c r="BI8" s="108"/>
+      <c r="BJ8" s="108"/>
+      <c r="BK8" s="108"/>
+      <c r="BL8" s="108"/>
+      <c r="BM8" s="108"/>
+      <c r="BN8" s="108"/>
+      <c r="BO8" s="108"/>
+      <c r="BP8" s="114"/>
       <c r="BQ8" s="33"/>
     </row>
     <row r="9" spans="1:69" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="124"/>
-      <c r="I9" s="117" t="s">
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="117" t="s">
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="110"/>
-      <c r="S9" s="117" t="s">
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="T9" s="109"/>
-      <c r="U9" s="109"/>
-      <c r="V9" s="109"/>
-      <c r="W9" s="110"/>
-      <c r="X9" s="120" t="s">
+      <c r="T9" s="105"/>
+      <c r="U9" s="105"/>
+      <c r="V9" s="105"/>
+      <c r="W9" s="106"/>
+      <c r="X9" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="Y9" s="109"/>
-      <c r="Z9" s="109"/>
-      <c r="AA9" s="109"/>
-      <c r="AB9" s="110"/>
-      <c r="AC9" s="120" t="s">
+      <c r="Y9" s="105"/>
+      <c r="Z9" s="105"/>
+      <c r="AA9" s="105"/>
+      <c r="AB9" s="106"/>
+      <c r="AC9" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="AD9" s="109"/>
-      <c r="AE9" s="109"/>
-      <c r="AF9" s="109"/>
-      <c r="AG9" s="110"/>
-      <c r="AH9" s="120" t="s">
+      <c r="AD9" s="105"/>
+      <c r="AE9" s="105"/>
+      <c r="AF9" s="105"/>
+      <c r="AG9" s="106"/>
+      <c r="AH9" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="AI9" s="109"/>
-      <c r="AJ9" s="109"/>
-      <c r="AK9" s="109"/>
-      <c r="AL9" s="110"/>
-      <c r="AM9" s="114" t="s">
+      <c r="AI9" s="105"/>
+      <c r="AJ9" s="105"/>
+      <c r="AK9" s="105"/>
+      <c r="AL9" s="106"/>
+      <c r="AM9" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="AN9" s="109"/>
-      <c r="AO9" s="109"/>
-      <c r="AP9" s="109"/>
-      <c r="AQ9" s="110"/>
-      <c r="AR9" s="114" t="s">
+      <c r="AN9" s="105"/>
+      <c r="AO9" s="105"/>
+      <c r="AP9" s="105"/>
+      <c r="AQ9" s="106"/>
+      <c r="AR9" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="AS9" s="109"/>
-      <c r="AT9" s="109"/>
-      <c r="AU9" s="109"/>
-      <c r="AV9" s="110"/>
-      <c r="AW9" s="114" t="s">
+      <c r="AS9" s="105"/>
+      <c r="AT9" s="105"/>
+      <c r="AU9" s="105"/>
+      <c r="AV9" s="106"/>
+      <c r="AW9" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="AX9" s="109"/>
-      <c r="AY9" s="109"/>
-      <c r="AZ9" s="109"/>
-      <c r="BA9" s="110"/>
-      <c r="BB9" s="108" t="s">
+      <c r="AX9" s="105"/>
+      <c r="AY9" s="105"/>
+      <c r="AZ9" s="105"/>
+      <c r="BA9" s="106"/>
+      <c r="BB9" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="BC9" s="109"/>
-      <c r="BD9" s="109"/>
-      <c r="BE9" s="109"/>
-      <c r="BF9" s="110"/>
-      <c r="BG9" s="108" t="s">
+      <c r="BC9" s="105"/>
+      <c r="BD9" s="105"/>
+      <c r="BE9" s="105"/>
+      <c r="BF9" s="106"/>
+      <c r="BG9" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="BH9" s="109"/>
-      <c r="BI9" s="109"/>
-      <c r="BJ9" s="109"/>
-      <c r="BK9" s="110"/>
-      <c r="BL9" s="108" t="s">
+      <c r="BH9" s="105"/>
+      <c r="BI9" s="105"/>
+      <c r="BJ9" s="105"/>
+      <c r="BK9" s="106"/>
+      <c r="BL9" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="BM9" s="109"/>
-      <c r="BN9" s="109"/>
-      <c r="BO9" s="109"/>
-      <c r="BP9" s="110"/>
+      <c r="BM9" s="105"/>
+      <c r="BN9" s="105"/>
+      <c r="BO9" s="105"/>
+      <c r="BP9" s="106"/>
       <c r="BQ9" s="35"/>
     </row>
     <row r="10" spans="1:69" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="124"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="100"/>
       <c r="I10" s="37" t="s">
         <v>33</v>
       </c>
@@ -3689,7 +3689,7 @@
       <c r="BP13" s="73"/>
       <c r="BQ13" s="61"/>
     </row>
-    <row r="14" spans="1:69" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:69" ht="26" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
       <c r="B14" s="74">
         <v>1.2</v>
@@ -3782,7 +3782,7 @@
       <c r="BP14" s="73"/>
       <c r="BQ14" s="61"/>
     </row>
-    <row r="15" spans="1:69" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:69" ht="13" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
       <c r="B15" s="74">
         <v>1.3</v>
@@ -4228,7 +4228,7 @@
       <c r="BP19" s="60"/>
       <c r="BQ19" s="61"/>
     </row>
-    <row r="20" spans="1:69" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:69" ht="26" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
       <c r="B20" s="74">
         <v>2.2000000000000002</v>
@@ -4322,7 +4322,7 @@
       <c r="BP20" s="73"/>
       <c r="BQ20" s="61"/>
     </row>
-    <row r="21" spans="1:69" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:69" ht="26" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
       <c r="B21" s="74">
         <v>2.2999999999999998</v>
@@ -4416,7 +4416,7 @@
       <c r="BP21" s="73"/>
       <c r="BQ21" s="61"/>
     </row>
-    <row r="22" spans="1:69" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:69" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
       <c r="B22" s="74">
         <v>2.4</v>
@@ -4523,7 +4523,7 @@
       <c r="BP22" s="73"/>
       <c r="BQ22" s="61"/>
     </row>
-    <row r="23" spans="1:69" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:69" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="74">
         <v>2.5</v>
@@ -4686,7 +4686,7 @@
       <c r="BP24" s="78"/>
       <c r="BQ24" s="32"/>
     </row>
-    <row r="25" spans="1:69" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:69" ht="26" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
       <c r="B25" s="49">
         <v>3.1</v>
@@ -5062,7 +5062,7 @@
       <c r="BP28" s="78"/>
       <c r="BQ28" s="32"/>
     </row>
-    <row r="29" spans="1:69" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:69" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="48"/>
       <c r="B29" s="49">
         <v>4.0999999999999996</v>
@@ -5379,11 +5379,11 @@
       </c>
       <c r="F32" s="51">
         <f>E32+G32-1</f>
-        <v>44763</v>
+        <v>44764</v>
       </c>
       <c r="G32" s="93">
         <f>SUM(I32:BP32)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H32" s="65">
         <v>0</v>
@@ -5413,7 +5413,9 @@
       <c r="AE32" s="70"/>
       <c r="AF32" s="70"/>
       <c r="AG32" s="70"/>
-      <c r="AH32" s="68"/>
+      <c r="AH32" s="96">
+        <v>1</v>
+      </c>
       <c r="AI32" s="68"/>
       <c r="AJ32" s="68"/>
       <c r="AK32" s="68"/>
@@ -5675,6 +5677,31 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="P5:AA5"/>
+    <mergeCell ref="O2:AE2"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AB4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="BL9:BP9"/>
+    <mergeCell ref="BB9:BF9"/>
+    <mergeCell ref="BB8:BP8"/>
+    <mergeCell ref="AM9:AQ9"/>
+    <mergeCell ref="AM8:BA8"/>
+    <mergeCell ref="AR9:AV9"/>
+    <mergeCell ref="AW9:BA9"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="I8:W8"/>
+    <mergeCell ref="BG9:BK9"/>
+    <mergeCell ref="X8:AL8"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="AH9:AL9"/>
+    <mergeCell ref="AC9:AG9"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="H8:H10"/>
     <mergeCell ref="B8:B10"/>
@@ -5684,31 +5711,6 @@
     <mergeCell ref="F8:F10"/>
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="E8:E10"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="I8:W8"/>
-    <mergeCell ref="BG9:BK9"/>
-    <mergeCell ref="X8:AL8"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="AH9:AL9"/>
-    <mergeCell ref="AC9:AG9"/>
-    <mergeCell ref="BL9:BP9"/>
-    <mergeCell ref="BB9:BF9"/>
-    <mergeCell ref="BB8:BP8"/>
-    <mergeCell ref="AM9:AQ9"/>
-    <mergeCell ref="AM8:BA8"/>
-    <mergeCell ref="AR9:AV9"/>
-    <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="P5:AA5"/>
-    <mergeCell ref="O2:AE2"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AB4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
